--- a/biology/Zoologie/Cebrennus_logunovi/Cebrennus_logunovi.xlsx
+++ b/biology/Zoologie/Cebrennus_logunovi/Cebrennus_logunovi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cebrennus logunovi est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cebrennus logunovi est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Turkménistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Turkménistan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm sur 3,5 mm et l'abdomen 4,4 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 4,8 mm sur 4,0 mm et l'abdomen 7,0 mm de long sur 5,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm sur 3,5 mm et l'abdomen 4,4 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 4,8 mm sur 4,0 mm et l'abdomen 7,0 mm de long sur 5,9 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du biologiste russo-britannique Dmitri V. Logunov[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du biologiste russo-britannique Dmitri V. Logunov.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jäger, 2000 : The huntsman spider genus Cebrennus: four new species and a preliminary key to known species. Revue arachnologique, vol. 13, no 12, p. 163-186 (texte intégral).</t>
         </is>
